--- a/myapp/files/9_MethodComparePercent/Scenario 334.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 334.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6544</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.04655774619056</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.73010380622837</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3278</v>
+        <v>17053</v>
       </c>
       <c r="F3" t="n">
-        <v>4.66380217966594</v>
+        <v>2.72722329550543</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>9.52380952380952</v>
+        <v>4.1522491349481</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>7916</v>
+        <v>36354</v>
       </c>
       <c r="F4" t="n">
-        <v>11.2625558432689</v>
+        <v>5.81396092680493</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>9.52380952380952</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3332</v>
+        <v>33171</v>
       </c>
       <c r="F5" t="n">
-        <v>4.74063113564579</v>
+        <v>5.30491549493993</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -707,10 +707,10 @@
         <v>5.97014925373134</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>7.14285714285714</v>
+        <v>6.57439446366782</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>2706</v>
+        <v>15378</v>
       </c>
       <c r="F6" t="n">
-        <v>3.84998434965711</v>
+        <v>2.45934673302542</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.76190476190476</v>
+        <v>3.11418685121107</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>11686</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.86889881142769</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.07612456747405</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>27520</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.40117193997006</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.47761194029851</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.49826989619377</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4405</v>
+        <v>59069</v>
       </c>
       <c r="F9" t="n">
-        <v>6.26725094613437</v>
+        <v>9.44668696664577</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -859,10 +859,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>7.14285714285714</v>
+        <v>9.68858131487889</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>6689</v>
+        <v>57123</v>
       </c>
       <c r="F10" t="n">
-        <v>9.51683123239336</v>
+        <v>9.13547037525108</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -897,16 +897,16 @@
         <v>8.95522388059702</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="J10" t="n">
-        <v>7.14285714285714</v>
+        <v>10.7266435986159</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>8.95522388059702</v>
+        <v>7.46268656716418</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2205</v>
+        <v>16684</v>
       </c>
       <c r="F11" t="n">
-        <v>3.13718236917736</v>
+        <v>2.66821048860685</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>4.76190476190476</v>
+        <v>4.1522491349481</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8458</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.35265669579458</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.73010380622837</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>22108</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.5356507721242</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.46020761245675</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>3425</v>
+        <v>66840</v>
       </c>
       <c r="F14" t="n">
-        <v>4.87294767094443</v>
+        <v>10.6894742902471</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -1049,10 +1049,10 @@
         <v>11.9402985074627</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>4.76190476190476</v>
+        <v>7.26643598615917</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>15173</v>
+        <v>69244</v>
       </c>
       <c r="F15" t="n">
-        <v>21.5875138718948</v>
+        <v>11.0739371297706</v>
       </c>
       <c r="G15" t="n">
         <v>18</v>
@@ -1087,10 +1087,10 @@
         <v>26.865671641791</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J15" t="n">
-        <v>16.6666666666667</v>
+        <v>10.0346020761246</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>16793</v>
+        <v>43604</v>
       </c>
       <c r="F16" t="n">
-        <v>23.8923825512904</v>
+        <v>6.97342664500198</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>16.6666666666667</v>
+        <v>6.57439446366782</v>
       </c>
       <c r="K16" t="n">
         <v>8</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>11916</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.90568186179808</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.03806228373702</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>765</v>
+        <v>23672</v>
       </c>
       <c r="F18" t="n">
-        <v>1.08841020971459</v>
+        <v>3.78577551464285</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.38095238095238</v>
+        <v>2.42214532871972</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1215</v>
+        <v>31375</v>
       </c>
       <c r="F19" t="n">
-        <v>1.72865150954671</v>
+        <v>5.01768784943898</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>2.38095238095238</v>
+        <v>3.11418685121107</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>704</v>
+        <v>23835</v>
       </c>
       <c r="F20" t="n">
-        <v>1.00162194462624</v>
+        <v>3.81184350251404</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -1277,10 +1277,10 @@
         <v>10.4477611940299</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>2.38095238095238</v>
+        <v>3.80622837370242</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>19738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.15662542700324</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.42214532871972</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>819</v>
+        <v>1915</v>
       </c>
       <c r="F22" t="n">
-        <v>1.16523916569445</v>
+        <v>0.306258875909981</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38095238095238</v>
+        <v>1.03806228373702</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>861</v>
+        <v>4722</v>
       </c>
       <c r="F23" t="n">
-        <v>1.22499502034545</v>
+        <v>0.755172016734689</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38095238095238</v>
+        <v>1.3840830449827</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.49253731343284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4860</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.777241846956922</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.03806228373702</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4740</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.758050690241936</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.03806228373702</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>7679</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.22807410345313</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.03806228373702</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
